--- a/data/Data_for_sensitivity_analysis_with_presamples.xlsx
+++ b/data/Data_for_sensitivity_analysis_with_presamples.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD43E45-B46C-405F-821E-1D22682A6101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28200EA-3F08-42DF-94E3-14327BE3E6F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -379,6 +379,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,30 +660,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.53515625" customWidth="1"/>
+    <col min="4" max="4" width="28.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.84375" customWidth="1"/>
+    <col min="6" max="6" width="46.15234375" customWidth="1"/>
+    <col min="7" max="7" width="7.53515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -773,7 +774,7 @@
         <v>3.8183902356770569E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -820,7 +821,7 @@
         <v>1.5273560942708228E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -866,8 +867,10 @@
         <f t="shared" si="1"/>
         <v>4.8321312820571623E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>74</v>
       </c>
@@ -915,7 +918,7 @@
         <v>1.8761934470517894E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>74</v>
       </c>
@@ -963,7 +966,7 @@
         <v>1.653410333644606E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>1.0572972892047485E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>74</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>1.2926330166901926E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>74</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>5.7983455243500724E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>74</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>5.7983455243500724E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>8.7668145953589266E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>7.7258247905567312E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>4.9403910461359567E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>6.0400349521365793E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>2.7093698814311572E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>2.7093698814311572E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1459,7 +1462,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1710,7 +1713,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -1961,7 +1964,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>6.0691836821997937E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -2259,7 +2262,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>19</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>4.394989933177957E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2557,7 +2560,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>6.0739797359785621E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>7.9086586535292453E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2667,7 +2670,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>1.1415525114155251E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>9.1209850402761793E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>-9.1209850402761793E-7</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>3.4273110855389337E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>2.171663104827662E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -2912,7 +2915,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>19</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
@@ -3093,7 +3096,7 @@
       </c>
       <c r="O56" s="16"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3142,7 @@
       </c>
       <c r="O57" s="16"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>19</v>
       </c>
@@ -3188,7 +3191,7 @@
       </c>
       <c r="O58" s="16"/>
     </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="12"/>
@@ -3204,7 +3207,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>34</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>34</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>-2.9139629896659456E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="12"/>
@@ -3493,7 +3496,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>39</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>39</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>39</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>-2.9139629896659456E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>39</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>4.9504950495049508E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="12"/>
@@ -3827,7 +3830,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>47</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>47</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>47</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>47</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>-2.9139629896659456E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>4.9504950495049508E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="12"/>
@@ -4161,7 +4164,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>-2.9139629896659456E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="12"/>
@@ -4450,7 +4453,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>66</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>66</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>66</v>
       </c>
